--- a/xlscsv/UaP07_FichaEvidencias.xlsx
+++ b/xlscsv/UaP07_FichaEvidencias.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t xml:space="preserve"> UaP07 - Políticas públicas o programas para el monitoreo a la negociación colectiva</t>
   </si>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>Evidencias</t>
+  </si>
+  <si>
+    <t>Nombre de evidencia: Evidencia vacía
+Unidad de observación: Programa Presupuestario
+URL: 
+Institución: Junta Federal de Conciliación y Arbitraje
+Vigencia: 0
+Fecha de acualización: 2017-06-15</t>
   </si>
 </sst>
 </file>
@@ -484,7 +492,9 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
